--- a/Correlations/highPearson.xlsx
+++ b/Correlations/highPearson.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>keyword</t>
   </si>
@@ -31,109 +31,76 @@
     <t>MG_newDeaths</t>
   </si>
   <si>
+    <t>teste covid</t>
+  </si>
+  <si>
+    <t>exame covid</t>
+  </si>
+  <si>
+    <t>teste rápido covid</t>
+  </si>
+  <si>
+    <t>igg</t>
+  </si>
+  <si>
+    <t>igm</t>
+  </si>
+  <si>
+    <t>igg igm</t>
+  </si>
+  <si>
     <t>covid igg</t>
   </si>
   <si>
     <t>covid igm igg</t>
   </si>
   <si>
-    <t>exame covid</t>
+    <t>reagente igg</t>
+  </si>
+  <si>
+    <t>teste igg</t>
   </si>
   <si>
     <t>exame igg</t>
   </si>
   <si>
-    <t>igg igm</t>
-  </si>
-  <si>
-    <t>igg</t>
-  </si>
-  <si>
-    <t>igm</t>
-  </si>
-  <si>
-    <t>ivermectina covid como tomar</t>
-  </si>
-  <si>
-    <t>para que que serve ivermectina</t>
-  </si>
-  <si>
-    <t>plano de reabertura</t>
-  </si>
-  <si>
-    <t>reabertura academias</t>
-  </si>
-  <si>
-    <t>reabertura escolas</t>
-  </si>
-  <si>
-    <t>reabertura shopping</t>
-  </si>
-  <si>
-    <t>reagente igg</t>
-  </si>
-  <si>
-    <t>teste covid</t>
-  </si>
-  <si>
-    <t>teste igg</t>
-  </si>
-  <si>
-    <t>teste rápido covid</t>
-  </si>
-  <si>
-    <t>tomar ivermectina</t>
+    <t>exame cotonete</t>
   </si>
   <si>
     <t>covid pcr</t>
   </si>
   <si>
+    <t>pcr exame covid</t>
+  </si>
+  <si>
+    <t>pcr</t>
+  </si>
+  <si>
     <t>estou com covid</t>
   </si>
   <si>
-    <t>exame cotonete</t>
-  </si>
-  <si>
-    <t>pcr exame covid</t>
-  </si>
-  <si>
-    <t>pcr</t>
-  </si>
-  <si>
-    <t>peguei covid</t>
-  </si>
-  <si>
-    <t>brasil coronavirus</t>
-  </si>
-  <si>
-    <t>corona grupo de risco</t>
-  </si>
-  <si>
-    <t>coronavirus no brasil</t>
-  </si>
-  <si>
-    <t>coronavirus oms</t>
-  </si>
-  <si>
-    <t>medicamento corona</t>
-  </si>
-  <si>
-    <t>medicamento coronavirus</t>
-  </si>
-  <si>
-    <t>oms corona</t>
-  </si>
-  <si>
-    <t>álcool 70</t>
-  </si>
-  <si>
-    <t>álcool gel</t>
+    <t>pico brasil</t>
+  </si>
+  <si>
+    <t>pico coronavírus</t>
+  </si>
+  <si>
+    <t>brasil coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus brasil pico</t>
+  </si>
+  <si>
+    <t>coronavírus pico brasil</t>
+  </si>
+  <si>
+    <t>ministerio da saude</t>
+  </si>
+  <si>
+    <t>brasil coronavírus mortes</t>
   </si>
   <si>
     <t>febre</t>
-  </si>
-  <si>
-    <t>tosse</t>
   </si>
 </sst>
 </file>
@@ -491,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +489,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.878742000442236</v>
+        <v>0.7882801279886475</v>
       </c>
       <c r="D2">
-        <v>0.7409837101659369</v>
+        <v>0.7987566641564731</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -536,10 +503,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.871033739341847</v>
+        <v>0.7606687991263346</v>
       </c>
       <c r="D3">
-        <v>0.7362521809313467</v>
+        <v>0.8809695256133733</v>
+      </c>
+      <c r="E3">
+        <v>0.7703630639179171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -550,13 +520,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.7119791458716518</v>
-      </c>
-      <c r="D4">
-        <v>0.8593585306505142</v>
-      </c>
-      <c r="E4">
-        <v>0.7479291151522643</v>
+        <v>0.8273040981741869</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -567,7 +531,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.8000706780900345</v>
+        <v>0.9069740211327316</v>
+      </c>
+      <c r="D5">
+        <v>0.7615595934498973</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -578,10 +545,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.8730348981863357</v>
+        <v>0.9142691940072742</v>
       </c>
       <c r="D6">
-        <v>0.7240431542722598</v>
+        <v>0.785241976194942</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -592,10 +559,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.8818303800175032</v>
+        <v>0.9117679351180286</v>
       </c>
       <c r="D7">
-        <v>0.74917170674512</v>
+        <v>0.7865609566779823</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -606,10 +573,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.9003139279461155</v>
+        <v>0.8923304199352424</v>
       </c>
       <c r="D8">
-        <v>0.7456899410866701</v>
+        <v>0.7446733323361729</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -620,10 +587,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.845849243632589</v>
+        <v>0.8723531372588305</v>
       </c>
       <c r="D9">
-        <v>0.7957775428550856</v>
+        <v>0.7314158299061423</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -634,7 +601,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.7173086203257535</v>
+        <v>0.8223470394240541</v>
+      </c>
+      <c r="D10">
+        <v>0.8826052353857897</v>
+      </c>
+      <c r="E10">
+        <v>0.7675016565180249</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -645,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.7424861598414459</v>
+        <v>0.8624164967351086</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -656,7 +629,10 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.7559658816952974</v>
+        <v>0.7991753583108593</v>
+      </c>
+      <c r="D12">
+        <v>0.7289083233115897</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -666,8 +642,11 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
-        <v>0.7261954708104643</v>
+      <c r="D13">
+        <v>0.7995907293331249</v>
+      </c>
+      <c r="E13">
+        <v>0.8229294622653641</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -677,8 +656,11 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>0.7137743658147547</v>
+      <c r="D14">
+        <v>0.8448434137239049</v>
+      </c>
+      <c r="E14">
+        <v>0.8315223317852537</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -688,17 +670,11 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15">
-        <v>0.7953752379768579</v>
-      </c>
       <c r="D15">
-        <v>0.83875518007481</v>
+        <v>0.8359180970251079</v>
       </c>
       <c r="E15">
-        <v>0.7762583001720091</v>
-      </c>
-      <c r="F15">
-        <v>0.7291521153830216</v>
+        <v>0.8376897127147903</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -708,11 +684,11 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16">
-        <v>0.7537458364548152</v>
-      </c>
       <c r="D16">
-        <v>0.7736614491140981</v>
+        <v>0.8116486340725847</v>
+      </c>
+      <c r="E16">
+        <v>0.826240985848521</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -722,8 +698,8 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>0.8478460317990307</v>
+      <c r="D17">
+        <v>0.7640199784247949</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -733,8 +709,8 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
-        <v>0.7749648084439593</v>
+      <c r="E18">
+        <v>-0.7061866711198784</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -744,14 +720,8 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>0.8660719810898639</v>
-      </c>
-      <c r="D19">
-        <v>0.8409102192791336</v>
-      </c>
       <c r="E19">
-        <v>0.7120690989877491</v>
+        <v>-0.7197341187639721</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -761,11 +731,8 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="D20">
-        <v>0.8863588848128726</v>
-      </c>
       <c r="E20">
-        <v>0.8075716857450457</v>
+        <v>-0.7067405082918143</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -775,8 +742,8 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="D21">
-        <v>0.7430022762093478</v>
+      <c r="E21">
+        <v>-0.7072641009522365</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -786,14 +753,8 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="D22">
-        <v>0.8651108413496054</v>
-      </c>
       <c r="E22">
-        <v>0.8903854857263523</v>
-      </c>
-      <c r="F22">
-        <v>0.7633297254982299</v>
+        <v>-0.7072641009522365</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -803,11 +764,8 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="D23">
-        <v>0.8793006990879781</v>
-      </c>
       <c r="E23">
-        <v>0.8060070405407536</v>
+        <v>-0.7014890966700777</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -817,11 +775,8 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="D24">
-        <v>0.907559021844549</v>
-      </c>
       <c r="E24">
-        <v>0.8444100888233996</v>
+        <v>-0.7106892220835668</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -831,144 +786,8 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="D25">
-        <v>0.8197463251411996</v>
-      </c>
-      <c r="E25">
-        <v>0.7524949677173879</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26">
-        <v>-0.7121454871406987</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27">
-        <v>-0.7472459455723246</v>
-      </c>
-      <c r="F27">
-        <v>-0.7569340707161413</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28">
-        <v>-0.7119569106005142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29">
-        <v>-0.7144535483362131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30">
-        <v>-0.720708156800972</v>
-      </c>
-      <c r="F30">
-        <v>-0.7437737509543705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31">
-        <v>-0.7031682062064951</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32">
-        <v>-0.7322919857358914</v>
-      </c>
-      <c r="F32">
-        <v>-0.7398555439957212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33">
-        <v>-0.7568797551641043</v>
-      </c>
-      <c r="F33">
-        <v>-0.759501318913578</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34">
-        <v>-0.7097269059286252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35">
-        <v>-0.7951054974980791</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36">
-        <v>-0.7395607830381649</v>
+      <c r="F25">
+        <v>-0.7088573533151522</v>
       </c>
     </row>
   </sheetData>

--- a/Correlations/highPearson.xlsx
+++ b/Correlations/highPearson.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>keyword</t>
   </si>
@@ -76,31 +76,13 @@
     <t>pcr</t>
   </si>
   <si>
-    <t>estou com covid</t>
-  </si>
-  <si>
-    <t>pico brasil</t>
-  </si>
-  <si>
-    <t>pico coronavírus</t>
+    <t>peguei covid</t>
   </si>
   <si>
     <t>brasil coronavírus</t>
   </si>
   <si>
-    <t>coronavírus brasil pico</t>
-  </si>
-  <si>
-    <t>coronavírus pico brasil</t>
-  </si>
-  <si>
-    <t>ministerio da saude</t>
-  </si>
-  <si>
     <t>brasil coronavírus mortes</t>
-  </si>
-  <si>
-    <t>febre</t>
   </si>
 </sst>
 </file>
@@ -458,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,10 +471,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.7882801279886475</v>
+        <v>0.7875854822277522</v>
       </c>
       <c r="D2">
-        <v>0.7987566641564731</v>
+        <v>0.7975381766671763</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -503,13 +485,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.7606687991263346</v>
+        <v>0.7473921235971395</v>
       </c>
       <c r="D3">
-        <v>0.8809695256133733</v>
+        <v>0.876625308755157</v>
       </c>
       <c r="E3">
-        <v>0.7703630639179171</v>
+        <v>0.7684654722085865</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -520,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.8273040981741869</v>
+        <v>0.8163223847304697</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -531,10 +513,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.9069740211327316</v>
+        <v>0.9019911760830701</v>
       </c>
       <c r="D5">
-        <v>0.7615595934498973</v>
+        <v>0.765061779523126</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -545,10 +527,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.9142691940072742</v>
+        <v>0.9038455621815769</v>
       </c>
       <c r="D6">
-        <v>0.785241976194942</v>
+        <v>0.7735404525439052</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -559,10 +541,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.9117679351180286</v>
+        <v>0.9066945790484944</v>
       </c>
       <c r="D7">
-        <v>0.7865609566779823</v>
+        <v>0.7593155893104981</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -573,10 +555,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.8923304199352424</v>
+        <v>0.8750976242612639</v>
       </c>
       <c r="D8">
-        <v>0.7446733323361729</v>
+        <v>0.7369821730538669</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,10 +569,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.8723531372588305</v>
+        <v>0.8826151731133121</v>
       </c>
       <c r="D9">
-        <v>0.7314158299061423</v>
+        <v>0.7542000109207299</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -601,13 +583,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.8223470394240541</v>
+        <v>0.8394037122836262</v>
       </c>
       <c r="D10">
-        <v>0.8826052353857897</v>
+        <v>0.8945000158630423</v>
       </c>
       <c r="E10">
-        <v>0.7675016565180249</v>
+        <v>0.7429684860210746</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -618,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.8624164967351086</v>
+        <v>0.8310669428757275</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +611,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.7991753583108593</v>
-      </c>
-      <c r="D12">
-        <v>0.7289083233115897</v>
+        <v>0.8286654517918608</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -643,10 +622,10 @@
         <v>16</v>
       </c>
       <c r="D13">
-        <v>0.7995907293331249</v>
+        <v>0.8119023202767103</v>
       </c>
       <c r="E13">
-        <v>0.8229294622653641</v>
+        <v>0.8514641675341623</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -657,10 +636,10 @@
         <v>17</v>
       </c>
       <c r="D14">
-        <v>0.8448434137239049</v>
+        <v>0.8560927593465805</v>
       </c>
       <c r="E14">
-        <v>0.8315223317852537</v>
+        <v>0.8460074840257149</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -671,10 +650,10 @@
         <v>18</v>
       </c>
       <c r="D15">
-        <v>0.8359180970251079</v>
+        <v>0.8964147451952494</v>
       </c>
       <c r="E15">
-        <v>0.8376897127147903</v>
+        <v>0.8450725592291811</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -685,13 +664,13 @@
         <v>19</v>
       </c>
       <c r="D16">
-        <v>0.8116486340725847</v>
+        <v>0.8343129232104819</v>
       </c>
       <c r="E16">
-        <v>0.826240985848521</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.8440863383087603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -699,10 +678,13 @@
         <v>20</v>
       </c>
       <c r="D17">
-        <v>0.7640199784247949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.7523444142781768</v>
+      </c>
+      <c r="E17">
+        <v>0.7133486891517318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -710,10 +692,10 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>-0.7061866711198784</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>-0.7101778375410028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -721,73 +703,7 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>-0.7197341187639721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>-0.7067405082918143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>-0.7072641009522365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>-0.7072641009522365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23">
-        <v>-0.7014890966700777</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>-0.7106892220835668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25">
-        <v>-0.7088573533151522</v>
+        <v>-0.7005033557810264</v>
       </c>
     </row>
   </sheetData>
